--- a/src/excel_files/png/jp/payment/PNGLO001R_JP_INVOICE_SO_FI_JPTCD.xlsx
+++ b/src/excel_files/png/jp/payment/PNGLO001R_JP_INVOICE_SO_FI_JPTCD.xlsx
@@ -829,12 +829,12 @@
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>JSSO1000229</t>
+          <t>JSSO1000253</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr">
         <is>
-          <t>JSSO1000229</t>
+          <t>JSSO1000253</t>
         </is>
       </c>
       <c r="E3" s="13" t="n">
